--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3632.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3632.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.951138459267612</v>
+        <v>1.371340870857239</v>
       </c>
       <c r="B1">
-        <v>2.390678164163276</v>
+        <v>1.630016088485718</v>
       </c>
       <c r="C1">
-        <v>2.457685836271923</v>
+        <v>3.163380146026611</v>
       </c>
       <c r="D1">
-        <v>2.993108626479026</v>
+        <v>1.51623547077179</v>
       </c>
       <c r="E1">
-        <v>0.9534284181139031</v>
+        <v>0.8312529325485229</v>
       </c>
     </row>
   </sheetData>
